--- a/aanwezigheid showcase 13 jan.xlsx
+++ b/aanwezigheid showcase 13 jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samedens/Documents/GitHub/biomaterials_toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D042234-DA99-2B46-85BB-4F5F435B8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC842914-C462-9145-A36B-FEEDBB9D9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{9B54B1E6-365C-3846-A3A2-99B7BFF414DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
   <si>
     <t>naam</t>
   </si>
@@ -511,6 +511,18 @@
   </si>
   <si>
     <t>hoofddocent Onderzoeken en Ontwerpend leren - coördinator Minor Maker Education</t>
+  </si>
+  <si>
+    <t>waag en HKU</t>
+  </si>
+  <si>
+    <t>misschien op eind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joop Verloop </t>
+  </si>
+  <si>
+    <t>p.g.verloop@hva.nl</t>
   </si>
 </sst>
 </file>
@@ -886,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD57025-99CF-C64D-AC03-AAF847E87EE0}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,6 +974,9 @@
       <c r="B7" t="s">
         <v>86</v>
       </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -994,6 +1009,9 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1167,7 +1185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
@@ -1207,343 +1225,363 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D80">
-    <sortCondition ref="A1:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D81">
+    <sortCondition ref="A1:A81"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" xr:uid="{31626384-0DEF-0A48-B4A0-1EF1020FA5ED}"/>
-    <hyperlink ref="A39" r:id="rId2" display="mailto:kas_houthuijs@hotmail.com" xr:uid="{5057B499-5277-8C47-A5C8-6E5422EC1CE9}"/>
-    <hyperlink ref="A70" r:id="rId3" display="mailto:shirley.niemans@hku.nl" xr:uid="{71CB3994-2890-DE4F-AB26-04332D3E2FFE}"/>
+    <hyperlink ref="A40" r:id="rId2" display="mailto:kas_houthuijs@hotmail.com" xr:uid="{5057B499-5277-8C47-A5C8-6E5422EC1CE9}"/>
+    <hyperlink ref="A71" r:id="rId3" display="mailto:shirley.niemans@hku.nl" xr:uid="{71CB3994-2890-DE4F-AB26-04332D3E2FFE}"/>
     <hyperlink ref="A26" r:id="rId4" display="mailto:frankv@waag.org" xr:uid="{8A6CE792-DADF-0A43-A41E-D62F3ADE2B3D}"/>
     <hyperlink ref="A12" r:id="rId5" display="mailto:cecilia@waag.org" xr:uid="{4B0665AA-FACC-4A41-9C37-905DC080572B}"/>
     <hyperlink ref="A9" r:id="rId6" display="mailto:beatriz@waag.org" xr:uid="{895B09ED-53BA-9546-95F2-95491BD50E4E}"/>
@@ -1552,69 +1590,70 @@
     <hyperlink ref="A28" r:id="rId9" display="mailto:g.w.lovink@hva.nl" xr:uid="{93D69195-A2CE-DB43-BEEB-DA8CB8CBC2A8}"/>
     <hyperlink ref="A27" r:id="rId10" display="mailto:g.ferri@hva.nl" xr:uid="{29411558-3C1A-A34A-865D-81FA15D90AF7}"/>
     <hyperlink ref="A11" r:id="rId11" display="mailto:j.c.huizinga@hva.nl" xr:uid="{FA43E535-587B-EA46-BFE7-883124122F5F}"/>
-    <hyperlink ref="A46" r:id="rId12" display="mailto:j.m.bolderheij2@hva.nl" xr:uid="{231C0380-092B-0A42-8A4A-0C09365670AD}"/>
-    <hyperlink ref="A47" r:id="rId13" display="mailto:margherita@waag.org" xr:uid="{115C8951-7FAB-7D40-AF18-3AD3CB79BA7F}"/>
-    <hyperlink ref="A58" r:id="rId14" display="mailto:m.h.j.pijls@hva.nl" xr:uid="{8BE71A76-4CAF-684D-A480-D4E6C7AB65B1}"/>
-    <hyperlink ref="A67" r:id="rId15" display="mailto:a.p.van.vliet@hva.nl" xr:uid="{15049B24-18E3-064D-BF36-A65D17D70657}"/>
+    <hyperlink ref="A47" r:id="rId12" display="mailto:j.m.bolderheij2@hva.nl" xr:uid="{231C0380-092B-0A42-8A4A-0C09365670AD}"/>
+    <hyperlink ref="A48" r:id="rId13" display="mailto:margherita@waag.org" xr:uid="{115C8951-7FAB-7D40-AF18-3AD3CB79BA7F}"/>
+    <hyperlink ref="A59" r:id="rId14" display="mailto:m.h.j.pijls@hva.nl" xr:uid="{8BE71A76-4CAF-684D-A480-D4E6C7AB65B1}"/>
+    <hyperlink ref="A68" r:id="rId15" display="mailto:a.p.van.vliet@hva.nl" xr:uid="{15049B24-18E3-064D-BF36-A65D17D70657}"/>
     <hyperlink ref="A13" r:id="rId16" display="mailto:c.boschman@hva.nl" xr:uid="{5F59DB6D-0B29-564D-AEA8-A81D496CDCCF}"/>
-    <hyperlink ref="A61" r:id="rId17" display="mailto:o.oskamp@hva.nl" xr:uid="{657EBCD9-EDA3-4F40-B6E9-2DC6EF643185}"/>
+    <hyperlink ref="A62" r:id="rId17" display="mailto:o.oskamp@hva.nl" xr:uid="{657EBCD9-EDA3-4F40-B6E9-2DC6EF643185}"/>
     <hyperlink ref="A30" r:id="rId18" display="mailto:h.hoogcarspel@hva.nl" xr:uid="{E3156E12-E2DF-E843-A772-A788CB7E93E7}"/>
     <hyperlink ref="A24" r:id="rId19" display="mailto:f.kloos@hva.nl" xr:uid="{1443FA68-EC55-2842-AFD5-E4D2E2959FF6}"/>
-    <hyperlink ref="A38" r:id="rId20" display="mailto:j.p.sturkenboom@hva.nl" xr:uid="{9749CDE3-D524-0148-87C3-0D75E2C70D20}"/>
-    <hyperlink ref="A74" r:id="rId21" display="mailto:v.van.gemert@hva.nl" xr:uid="{BA3A89A9-3113-0547-B89B-D78D59F9AF9B}"/>
-    <hyperlink ref="A49" r:id="rId22" display="mailto:m.ruyg@hva.nl" xr:uid="{F8E3AF41-4861-7F4A-A14F-32EB3ECD7D41}"/>
+    <hyperlink ref="A39" r:id="rId20" display="mailto:j.p.sturkenboom@hva.nl" xr:uid="{9749CDE3-D524-0148-87C3-0D75E2C70D20}"/>
+    <hyperlink ref="A75" r:id="rId21" display="mailto:v.van.gemert@hva.nl" xr:uid="{BA3A89A9-3113-0547-B89B-D78D59F9AF9B}"/>
+    <hyperlink ref="A50" r:id="rId22" display="mailto:m.ruyg@hva.nl" xr:uid="{F8E3AF41-4861-7F4A-A14F-32EB3ECD7D41}"/>
     <hyperlink ref="A21" r:id="rId23" display="mailto:e.langenberg@hva.nl" xr:uid="{0C03A835-AD48-F94D-A5C5-C457CD0E0F59}"/>
-    <hyperlink ref="A52" r:id="rId24" display="mailto:m.male-alemany@hva.nl" xr:uid="{45A37F7E-86F5-1F47-9C78-FFA254889E91}"/>
-    <hyperlink ref="A73" r:id="rId25" display="mailto:t.r.nachtigall@hva.nl" xr:uid="{0E8EC836-8C5D-014F-AE12-4B400DF2E195}"/>
-    <hyperlink ref="A53" r:id="rId26" display="mailto:b.g.m.de.waal@hva.nl" xr:uid="{FE7A44FF-77F3-FF4E-8C3F-60E9D3531F71}"/>
-    <hyperlink ref="A75" r:id="rId27" display="mailto:w.j.c.groot@hva.nl" xr:uid="{7A4D2BA8-3209-E445-B2A4-322227F18B41}"/>
-    <hyperlink ref="A65" r:id="rId28" display="mailto:r.s.bolding@hva.nl" xr:uid="{B2621133-DA23-EF49-B7E1-B62FCC6895FA}"/>
+    <hyperlink ref="A53" r:id="rId24" display="mailto:m.male-alemany@hva.nl" xr:uid="{45A37F7E-86F5-1F47-9C78-FFA254889E91}"/>
+    <hyperlink ref="A74" r:id="rId25" display="mailto:t.r.nachtigall@hva.nl" xr:uid="{0E8EC836-8C5D-014F-AE12-4B400DF2E195}"/>
+    <hyperlink ref="A54" r:id="rId26" display="mailto:b.g.m.de.waal@hva.nl" xr:uid="{FE7A44FF-77F3-FF4E-8C3F-60E9D3531F71}"/>
+    <hyperlink ref="A76" r:id="rId27" display="mailto:w.j.c.groot@hva.nl" xr:uid="{7A4D2BA8-3209-E445-B2A4-322227F18B41}"/>
+    <hyperlink ref="A66" r:id="rId28" display="mailto:r.s.bolding@hva.nl" xr:uid="{B2621133-DA23-EF49-B7E1-B62FCC6895FA}"/>
     <hyperlink ref="A15" r:id="rId29" display="mailto:c.j.c.hofmans@hva.nl" xr:uid="{973EAB30-A77A-704C-BD80-6F04E3B1B47E}"/>
-    <hyperlink ref="A41" r:id="rId30" display="mailto:k.e.rowell@hva.nl" xr:uid="{00FA1F95-45B8-664C-AE29-176E919124D3}"/>
+    <hyperlink ref="A42" r:id="rId30" display="mailto:k.e.rowell@hva.nl" xr:uid="{00FA1F95-45B8-664C-AE29-176E919124D3}"/>
     <hyperlink ref="A35" r:id="rId31" display="mailto:j.p.siebers@hva.nl" xr:uid="{BBF07F4C-EBD0-0340-A85B-91462B2D7B3E}"/>
-    <hyperlink ref="A48" r:id="rId32" display="mailto:marije.de.haas@umu.se" xr:uid="{85E4C646-82D4-8F48-8FA4-506818E2022B}"/>
-    <hyperlink ref="A43" r:id="rId33" display="mailto:l.van.de.sande@hva.nl" xr:uid="{A9F748AA-6AFF-594D-9C3B-18E8C59D0FBD}"/>
-    <hyperlink ref="A57" r:id="rId34" display="mailto:monique.basjes@hva.nl" xr:uid="{F6B2569C-5A91-CC49-B5C4-20F2194A5DE8}"/>
+    <hyperlink ref="A49" r:id="rId32" display="mailto:marije.de.haas@umu.se" xr:uid="{85E4C646-82D4-8F48-8FA4-506818E2022B}"/>
+    <hyperlink ref="A44" r:id="rId33" display="mailto:l.van.de.sande@hva.nl" xr:uid="{A9F748AA-6AFF-594D-9C3B-18E8C59D0FBD}"/>
+    <hyperlink ref="A58" r:id="rId34" display="mailto:monique.basjes@hva.nl" xr:uid="{F6B2569C-5A91-CC49-B5C4-20F2194A5DE8}"/>
     <hyperlink ref="A32" r:id="rId35" display="mailto:isa.trauschke@hva.nl" xr:uid="{78744F86-1A66-344F-A531-A8005F96FA52}"/>
     <hyperlink ref="A33" r:id="rId36" display="mailto:isa-jane.ensing@hva.nl" xr:uid="{F3FD2365-8496-8D4B-86DF-43EAFBB8BE9B}"/>
-    <hyperlink ref="A55" r:id="rId37" display="mailto:melissa.liem@hva.nl" xr:uid="{27BEC39C-D7EB-EF47-A8F6-16D433DE269C}"/>
-    <hyperlink ref="A72" r:id="rId38" display="mailto:thiago.petrmale@hva.nl" xr:uid="{09B71404-4D71-A44A-8F7D-814205940F71}"/>
+    <hyperlink ref="A56" r:id="rId37" display="mailto:melissa.liem@hva.nl" xr:uid="{27BEC39C-D7EB-EF47-A8F6-16D433DE269C}"/>
+    <hyperlink ref="A73" r:id="rId38" display="mailto:thiago.petrmale@hva.nl" xr:uid="{09B71404-4D71-A44A-8F7D-814205940F71}"/>
     <hyperlink ref="A19" r:id="rId39" display="mailto:elisavanderburg@gmail.com" xr:uid="{3BE1C7A4-D354-B542-8252-9E1A5F3FCC54}"/>
     <hyperlink ref="A6" r:id="rId40" display="mailto:a.vlaanderen@oba.nl" xr:uid="{003B9B35-39A6-0F4F-B11C-46D79A85A540}"/>
     <hyperlink ref="A7" r:id="rId41" display="mailto:a.van.woerden@hva.nl" xr:uid="{7FEEBA3B-30BB-CD47-A9CA-69DF1AA864F5}"/>
     <hyperlink ref="A31" r:id="rId42" display="mailto:i.m.t.kloppenburg@hva.nl" xr:uid="{2DB50D4C-F228-734B-9EB4-16C68B507D16}"/>
     <hyperlink ref="A8" r:id="rId43" display="mailto:a.l.m.de.leede@hva.nl" xr:uid="{6BDAD71E-1B6A-D546-9EC4-3B2BE381821B}"/>
     <hyperlink ref="A37" r:id="rId44" display="mailto:j.g.h.van.vorsselen@hva.nl" xr:uid="{60D8B1AE-5BD4-2941-BFA1-92C06C459786}"/>
-    <hyperlink ref="A56" r:id="rId45" display="mailto:m.van.zeijl@hva.nl" xr:uid="{9E0C184E-2DB5-6443-8926-5C9CE2BF5F42}"/>
-    <hyperlink ref="A50" r:id="rId46" display="mailto:m.ruyg@hva.nl" xr:uid="{E88E1D72-99EA-994D-9F5F-979D14992F4A}"/>
-    <hyperlink ref="A76" r:id="rId47" display="mailto:y.westplat@hva.nl" xr:uid="{A9BA9E68-9239-EF43-9C5C-D1DEA3A58C66}"/>
+    <hyperlink ref="A57" r:id="rId45" display="mailto:m.van.zeijl@hva.nl" xr:uid="{9E0C184E-2DB5-6443-8926-5C9CE2BF5F42}"/>
+    <hyperlink ref="A51" r:id="rId46" display="mailto:m.ruyg@hva.nl" xr:uid="{E88E1D72-99EA-994D-9F5F-979D14992F4A}"/>
+    <hyperlink ref="A77" r:id="rId47" display="mailto:y.westplat@hva.nl" xr:uid="{A9BA9E68-9239-EF43-9C5C-D1DEA3A58C66}"/>
     <hyperlink ref="A4" r:id="rId48" display="mailto:a.neumann@hva.nl" xr:uid="{9E0B30D6-1378-7944-805C-07BDFAD0C5E4}"/>
-    <hyperlink ref="A71" r:id="rId49" display="mailto:s.pavlovic@hva.nl" xr:uid="{2C524FE4-680F-B04D-95EF-AA469AF02046}"/>
-    <hyperlink ref="A68" r:id="rId50" display="mailto:s.m.b.robben@hva.nl" xr:uid="{A857C6F8-6277-2D42-B6A3-726262DE6002}"/>
+    <hyperlink ref="A72" r:id="rId49" display="mailto:s.pavlovic@hva.nl" xr:uid="{2C524FE4-680F-B04D-95EF-AA469AF02046}"/>
+    <hyperlink ref="A69" r:id="rId50" display="mailto:s.m.b.robben@hva.nl" xr:uid="{A857C6F8-6277-2D42-B6A3-726262DE6002}"/>
     <hyperlink ref="A23" r:id="rId51" display="mailto:r.f.aldershoff@hva.nl" xr:uid="{582557D1-6A3D-474C-87B9-77E0C495C7D2}"/>
     <hyperlink ref="A3" r:id="rId52" display="mailto:alex@contactamsterdam.nl" xr:uid="{CBE02AA7-11A5-714C-AC27-5B34887FE8BF}"/>
-    <hyperlink ref="A60" r:id="rId53" display="mailto:nathalie.roos@ahk.nl" xr:uid="{C8310CC1-84EB-CC4A-9520-991A13F912A2}"/>
+    <hyperlink ref="A61" r:id="rId53" display="mailto:nathalie.roos@ahk.nl" xr:uid="{C8310CC1-84EB-CC4A-9520-991A13F912A2}"/>
     <hyperlink ref="A18" r:id="rId54" display="mailto:d.m.c.van.ratingen@hva.nl" xr:uid="{10E87795-77F5-2F45-A481-E68C28943819}"/>
-    <hyperlink ref="A66" r:id="rId55" display="mailto:s.m.c.niederer@hva.nl" xr:uid="{FC7DDC51-6937-D249-9706-24E922D2F2AB}"/>
+    <hyperlink ref="A67" r:id="rId55" display="mailto:s.m.c.niederer@hva.nl" xr:uid="{FC7DDC51-6937-D249-9706-24E922D2F2AB}"/>
     <hyperlink ref="A10" r:id="rId56" display="mailto:c.a.m.de.gaetano@hva.nl" xr:uid="{218318D1-43C8-194B-934A-7C99E9890340}"/>
-    <hyperlink ref="A44" r:id="rId57" display="mailto:m.n.groen@hva.nl" xr:uid="{D5C9CA3B-F4DF-624A-9F22-B7D8ECE23425}"/>
-    <hyperlink ref="A51" r:id="rId58" display="mailto:m.a.geboers@hva.nl" xr:uid="{D01C7924-FEB8-FC40-A4C2-24A24DEECA65}"/>
-    <hyperlink ref="A69" r:id="rId59" display="mailto:sepp@networkcultures.org" xr:uid="{3E17A9A4-D88B-6746-B5C9-5F5050081C7D}"/>
+    <hyperlink ref="A45" r:id="rId57" display="mailto:m.n.groen@hva.nl" xr:uid="{D5C9CA3B-F4DF-624A-9F22-B7D8ECE23425}"/>
+    <hyperlink ref="A52" r:id="rId58" display="mailto:m.a.geboers@hva.nl" xr:uid="{D01C7924-FEB8-FC40-A4C2-24A24DEECA65}"/>
+    <hyperlink ref="A70" r:id="rId59" display="mailto:sepp@networkcultures.org" xr:uid="{3E17A9A4-D88B-6746-B5C9-5F5050081C7D}"/>
     <hyperlink ref="A14" r:id="rId60" display="mailto:chloe@networkcultures.org" xr:uid="{35676FC2-3954-E149-BB73-4BAC5BF7C547}"/>
-    <hyperlink ref="A59" r:id="rId61" display="mailto:m.c.billuart@hva.nl" xr:uid="{E88835D0-3F91-874C-85D6-0E325B9C2F0C}"/>
+    <hyperlink ref="A60" r:id="rId61" display="mailto:m.c.billuart@hva.nl" xr:uid="{E88835D0-3F91-874C-85D6-0E325B9C2F0C}"/>
     <hyperlink ref="A5" r:id="rId62" display="mailto:adockett@artemedios.com" xr:uid="{696E9249-5067-C342-A662-67B63DCD1238}"/>
-    <hyperlink ref="A42" r:id="rId63" display="mailto:lauramudde@gmail.com" xr:uid="{EEE48B7F-D981-4741-B402-DE7BF8CF694B}"/>
+    <hyperlink ref="A43" r:id="rId63" display="mailto:lauramudde@gmail.com" xr:uid="{EEE48B7F-D981-4741-B402-DE7BF8CF694B}"/>
     <hyperlink ref="A16" r:id="rId64" display="mailto:d.m.e.griffioen@hva.nl" xr:uid="{3F9DDD68-58A5-7444-9208-CA95C89D3A05}"/>
     <hyperlink ref="A25" r:id="rId65" display="mailto:f.j.kresin@hva.nl" xr:uid="{6CE71811-89FD-DF49-B384-BD234A4958AC}"/>
     <hyperlink ref="A20" r:id="rId66" display="mailto:emiel.heijnen@ahk.nl" xr:uid="{210DE622-C57C-BD4A-A517-03B2061A469F}"/>
-    <hyperlink ref="A54" r:id="rId67" display="mailto:melissa.bremmer@ahk.nl" xr:uid="{AAEF2473-395D-E540-ADF8-86F09037C372}"/>
+    <hyperlink ref="A55" r:id="rId67" display="mailto:melissa.bremmer@ahk.nl" xr:uid="{AAEF2473-395D-E540-ADF8-86F09037C372}"/>
     <hyperlink ref="A29" r:id="rId68" display="mailto:hannaijm@hotmail.com" xr:uid="{6B47E0CD-BCBF-DF42-B685-3C5092DBE58A}"/>
-    <hyperlink ref="A77" r:id="rId69" display="mailto:z.de.brouwer@hva.nl" xr:uid="{652D0890-2FB3-E445-BF1F-62A055AF00B4}"/>
-    <hyperlink ref="A45" r:id="rId70" display="mailto:m.j.terpstra@hva.nl" xr:uid="{DBA279BD-F238-B845-AE5F-2006907FBF91}"/>
-    <hyperlink ref="A63" r:id="rId71" display="mailto:p.van.deutekom@hva.nl" xr:uid="{B0BE2BE1-C9E2-F84E-8FF6-9BB908F0A26E}"/>
-    <hyperlink ref="A62" r:id="rId72" display="mailto:p.h.m.geurts@hva.nl" xr:uid="{5F42EF42-B396-D04F-98F2-BF339BE21EFE}"/>
+    <hyperlink ref="A78" r:id="rId69" display="mailto:z.de.brouwer@hva.nl" xr:uid="{652D0890-2FB3-E445-BF1F-62A055AF00B4}"/>
+    <hyperlink ref="A46" r:id="rId70" display="mailto:m.j.terpstra@hva.nl" xr:uid="{DBA279BD-F238-B845-AE5F-2006907FBF91}"/>
+    <hyperlink ref="A64" r:id="rId71" display="mailto:p.van.deutekom@hva.nl" xr:uid="{B0BE2BE1-C9E2-F84E-8FF6-9BB908F0A26E}"/>
+    <hyperlink ref="A63" r:id="rId72" display="mailto:p.h.m.geurts@hva.nl" xr:uid="{5F42EF42-B396-D04F-98F2-BF339BE21EFE}"/>
     <hyperlink ref="A36" r:id="rId73" display="mailto:j.lustenhouwer@hva.nl" xr:uid="{76B75772-EC97-1F46-ADE9-52937A9CB1D1}"/>
     <hyperlink ref="B2" r:id="rId74" xr:uid="{FE027753-7851-0944-9232-65A442CBC182}"/>
+    <hyperlink ref="B38" r:id="rId75" xr:uid="{FFB0E881-7D19-054A-A38A-5E6F2A6BAF8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aanwezigheid showcase 13 jan.xlsx
+++ b/aanwezigheid showcase 13 jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samedens/Documents/GitHub/biomaterials_toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC842914-C462-9145-A36B-FEEDBB9D9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A765B5-D2A4-8F48-B9B4-25BF71EFFBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{9B54B1E6-365C-3846-A3A2-99B7BFF414DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="174">
   <si>
     <t>naam</t>
   </si>
@@ -523,6 +523,39 @@
   </si>
   <si>
     <t>p.g.verloop@hva.nl</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makers lab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKU Biomakers studio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMFI, Intern BioArtscience project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenniscentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion &amp; Technology </t>
+  </si>
+  <si>
+    <t>Makers Lab</t>
+  </si>
+  <si>
+    <t>CMD, PDC</t>
+  </si>
+  <si>
+    <t>AHK, lectoraar Kunsteducatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot lab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">waarschijnlijk wel </t>
   </si>
 </sst>
 </file>
@@ -901,7 +934,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1153,9 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1273,6 +1309,9 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -1361,6 +1400,9 @@
       <c r="B53" t="s">
         <v>52</v>
       </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -1431,6 +1473,9 @@
       <c r="B61" t="s">
         <v>109</v>
       </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -1439,6 +1484,9 @@
       <c r="B62" t="s">
         <v>39</v>
       </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -1447,6 +1495,9 @@
       <c r="B63" t="s">
         <v>148</v>
       </c>
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -1456,7 +1507,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>153</v>
       </c>
@@ -1464,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -1472,7 +1523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
@@ -1480,15 +1531,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -1496,7 +1553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
@@ -1504,7 +1561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="C71" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>101</v>
       </c>
@@ -1523,47 +1583,62 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
@@ -1571,7 +1646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
     </row>
   </sheetData>
